--- a/reduce_sample_size/mse_compare_results.xlsx
+++ b/reduce_sample_size/mse_compare_results.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x-y-zhou/Documents/GitHub/VAE-CME/Oscillation/reduce_sample_size/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x-y-zhou/Documents/GitHub/VAE-CME/reduce_sample_size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222B736-C68C-1B4B-B5BA-E8B079F81EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBF0A0C-CD59-D74B-92AB-56A357BF315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2000" windowWidth="27840" windowHeight="16940" xr2:uid="{1A73ACE9-DDEF-3647-A4B8-17424B867392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>X_MLP</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Y_VAE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>training time for 20 epoches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1794s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>612s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +117,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,12 +148,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,13 +471,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321E15AA-EDAC-EB44-948E-9C5549533D25}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -863,7 +888,7 @@
         <v>2.1894795059279669E-4</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13:L13" si="3">AVERAGE(I10:I12)</f>
+        <f t="shared" ref="I13:K13" si="3">AVERAGE(I10:I12)</f>
         <v>1.1707983500066118E-4</v>
       </c>
       <c r="J13" s="1">
@@ -877,6 +902,17 @@
       <c r="L13" s="2">
         <f>AVERAGE(L10:L12)</f>
         <v>9.6905238576736445E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/reduce_sample_size/mse_compare_results.xlsx
+++ b/reduce_sample_size/mse_compare_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x-y-zhou/Documents/GitHub/VAE-CME/reduce_sample_size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBF0A0C-CD59-D74B-92AB-56A357BF315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA75D2-0E9C-7A4F-87C0-4203114DFA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2000" windowWidth="27840" windowHeight="16940" xr2:uid="{1A73ACE9-DDEF-3647-A4B8-17424B867392}"/>
+    <workbookView xWindow="0" yWindow="22100" windowWidth="35840" windowHeight="20060" xr2:uid="{1A73ACE9-DDEF-3647-A4B8-17424B867392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>X_MLP</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,6 +90,10 @@
   </si>
   <si>
     <t>612s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of parameters</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -148,13 +154,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -471,284 +484,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321E15AA-EDAC-EB44-948E-9C5549533D25}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A8:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="124" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.6993777391030701E-4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.2125107793343401E-4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.1272214965049099E-4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9.2680362265818404E-5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8.8951311281529899E-5</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>6.6783427045294106E-5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>9.2311715725245297E-5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>8.7997397250095399E-5</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1.17879485397905E-4</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.0140104134694999E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.97735065544886E-4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.11871868073997E-4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.07708939008048E-4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.2958172749161101E-4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>9.68161956324557E-5</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>9.1627358628196295E-5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>8.9929750921351195E-5</v>
-      </c>
-      <c r="J4" s="1">
-        <v>6.6539805866779701E-5</v>
-      </c>
-      <c r="K4" s="2">
-        <v>4.8598455017513703E-5</v>
-      </c>
-      <c r="L4" s="2">
-        <v>6.4591313932130893E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.8571169085740299E-4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.1427374211251699E-4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.34525875524756E-4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7.4244362981596497E-5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0063054909064799E-4</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>2.1207491890289399E-4</v>
-      </c>
-      <c r="I5" s="1">
-        <v>9.38846004718614E-5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>9.4665871606464401E-5</v>
-      </c>
-      <c r="K5" s="2">
-        <v>6.8312188026065305E-5</v>
-      </c>
-      <c r="L5" s="2">
-        <v>7.9957923845863098E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <f>AVERAGE(B3:B5)</f>
-        <v>1.8446151010419868E-4</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:F6" si="0">AVERAGE(C3:C5)</f>
-        <v>1.8246556270664932E-4</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5165232139443166E-4</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>9.8835484246341984E-5</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5466018668211193E-5</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <f>AVERAGE(H3:H5)</f>
-        <v>1.2349523485879479E-4</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ref="I6:L6" si="1">AVERAGE(I3:I5)</f>
-        <v>9.2042022372819293E-5</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="1"/>
-        <v>8.3067691574446509E-5</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="1"/>
-        <v>7.8263376147161344E-5</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="1"/>
-        <v>8.1983426374981333E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -756,167 +546,419 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
-        <v>1.8109149119168699E-4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.6280101260543901E-4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>8.0866170524209805E-5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>6.9094496201279094E-5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5.8507605509315798E-5</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>1.67216969238862E-4</v>
-      </c>
-      <c r="I10" s="1">
-        <v>7.7331080371865503E-5</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.37978052119786E-4</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1.12609242469624E-4</v>
-      </c>
-      <c r="L10" s="2">
-        <v>8.5975052268391901E-5</v>
+      <c r="B10">
+        <v>1.6993780739439E-4</v>
+      </c>
+      <c r="C10">
+        <v>1.34977676355321E-4</v>
+      </c>
+      <c r="D10">
+        <v>1.07676368354163E-4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9.2680374940524998E-5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8.8951302697931495E-5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>8.0446940236832696E-5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>9.0398587994179304E-5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>6.6600517299355606E-5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>6.9092404779559001E-5</v>
+      </c>
+      <c r="L10" s="4">
+        <v>9.0513199208277606E-5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
-        <v>1.32806344533114E-4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.03185643975656E-4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>7.9400924820360001E-5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8.7796686410589498E-5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>8.03151801662887E-5</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>1.59896365644818E-4</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.30772915682327E-4</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.16072371431484E-4</v>
-      </c>
-      <c r="K11" s="2">
-        <v>8.5734886514811297E-5</v>
-      </c>
-      <c r="L11" s="2">
-        <v>9.2523298178886403E-5</v>
+      <c r="B11">
+        <v>1.97735030131973E-4</v>
+      </c>
+      <c r="C11">
+        <v>1.03897541313298E-4</v>
+      </c>
+      <c r="D11">
+        <v>1.28012833961451E-4</v>
+      </c>
+      <c r="E11">
+        <v>1.1216124854924299E-4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7.74396754777659E-5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>9.1627652915152196E-5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>6.5897950508063597E-5</v>
+      </c>
+      <c r="J11" s="4">
+        <v>7.4961508625798898E-5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>6.9164563825351401E-5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>6.45913104741482E-5</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
-        <v>1.4309563389314201E-4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.3288091767861001E-4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.03892003998227E-4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>7.9734012882491304E-5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>7.7117472574751901E-5</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
-        <v>3.2973051689471001E-4</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1.4313550894779099E-4</v>
-      </c>
-      <c r="J12" s="1">
-        <v>9.2146462437770404E-5</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1.08247414291417E-4</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1.1221736528293101E-4</v>
+      <c r="B12">
+        <v>1.65113824077437E-4</v>
+      </c>
+      <c r="C12">
+        <v>1.3014879460547499E-4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8.9480074073282302E-5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8.3938225902467693E-5</v>
+      </c>
+      <c r="F12">
+        <v>1.0063057759013E-4</v>
+      </c>
+      <c r="H12">
+        <v>1.12697339998336E-4</v>
+      </c>
+      <c r="I12">
+        <v>1.0160576279939001E-4</v>
+      </c>
+      <c r="J12" s="4">
+        <v>9.9546536546481302E-5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>8.9953305090625599E-5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>7.9450289554187098E-5</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
-      <c r="B13" s="1">
+      <c r="B13">
         <f>AVERAGE(B10:B12)</f>
-        <v>1.5233115653931432E-4</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" ref="C13:F13" si="2">AVERAGE(C10:C12)</f>
-        <v>1.3295585808656833E-4</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="2"/>
-        <v>8.8053033114265608E-5</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8875065164786632E-5</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>7.1980086083452133E-5</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
-        <f>AVERAGE(H10:H12)</f>
-        <v>2.1894795059279669E-4</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" ref="I13:K13" si="3">AVERAGE(I10:I12)</f>
-        <v>1.1707983500066118E-4</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1539896199634679E-4</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0219718109195077E-4</v>
-      </c>
-      <c r="L13" s="2">
-        <f>AVERAGE(L10:L12)</f>
-        <v>9.6905238576736445E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
+        <v>1.7759555386793333E-4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:L13" si="0">AVERAGE(C10:C12)</f>
+        <v>1.2300800409136467E-4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.0838975879629877E-4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>9.6259949797411891E-5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>8.9007185255275797E-5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>9.4923977716773617E-5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>8.5967433767210964E-5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>8.0369520823878602E-5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>7.6070091231845329E-5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>7.8184933078870973E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.8109153397012301E-4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.0249734099460001E-4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7.9597068696123799E-5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6.9094525734838299E-5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5.8507733917889597E-5</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>1.6107989794371901E-4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.3162273821669699E-4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.16376485832529E-4</v>
+      </c>
+      <c r="K17" s="2">
+        <v>6.1898486730957198E-5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>7.1673546954908803E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1.3280633323686401E-4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.18592080123517E-4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.02105683829432E-4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.9692264570067198E-5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9.3503268617553604E-5</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>1.5989643444124801E-4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.6901597641785801E-4</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.01840506532799E-4</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.0846689803759799E-4</v>
+      </c>
+      <c r="L18" s="2">
+        <v>9.2523286878899496E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.1175338612823701E-4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.3360016865483299E-4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.05850139645738E-4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7.5781829527773103E-5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7.7117076804023103E-5</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>1.4082248412686699E-4</v>
+      </c>
+      <c r="I19" s="2">
+        <v>9.7023456494676406E-5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.0869757063381701E-4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.4846495753724999E-4</v>
+      </c>
+      <c r="L19" s="2">
+        <v>7.9450289554187098E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20">
+        <f>AVERAGE(B17:B19)</f>
+        <v>1.7521708444507468E-4</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20" si="1">AVERAGE(C17:C19)</f>
+        <v>1.1822986325765E-4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="2">AVERAGE(D17:D19)</f>
+        <v>9.5850964057097945E-5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20" si="3">AVERAGE(E17:E19)</f>
+        <v>7.4856206610892867E-5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="4">AVERAGE(F17:F19)</f>
+        <v>7.6376026446488773E-5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20" si="5">AVERAGE(H17:H19)</f>
+        <v>1.5393293883727801E-4</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20" si="6">AVERAGE(I17:I19)</f>
+        <v>1.3255405704307711E-4</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20" si="7">AVERAGE(J17:J19)</f>
+        <v>1.0897152099971501E-4</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20" si="8">AVERAGE(K17:K19)</f>
+        <v>1.0627678076860173E-4</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20" si="9">AVERAGE(L17:L19)</f>
+        <v>8.1215707795998462E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6">
+        <v>7750</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7725</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="D46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>